--- a/Hamamatsu_S10362-33-025C/dV.xlsx
+++ b/Hamamatsu_S10362-33-025C/dV.xlsx
@@ -379,11 +379,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="266521808"/>
-        <c:axId val="266522200"/>
+        <c:axId val="553102784"/>
+        <c:axId val="553103176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="266521808"/>
+        <c:axId val="553102784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -393,12 +393,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266522200"/>
+        <c:crossAx val="553103176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="266522200"/>
+        <c:axId val="553103176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -411,7 +411,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266521808"/>
+        <c:crossAx val="553102784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1172,11 +1172,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="72399072"/>
-        <c:axId val="72399464"/>
+        <c:axId val="431483056"/>
+        <c:axId val="431483448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72399072"/>
+        <c:axId val="431483056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="69.5"/>
@@ -1188,12 +1188,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72399464"/>
+        <c:crossAx val="431483448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72399464"/>
+        <c:axId val="431483448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -1206,14 +1206,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72399072"/>
+        <c:crossAx val="431483056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1340,11 +1339,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206280528"/>
-        <c:axId val="206280920"/>
+        <c:axId val="431484232"/>
+        <c:axId val="431484624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206280528"/>
+        <c:axId val="431484232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1354,12 +1353,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206280920"/>
+        <c:crossAx val="431484624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206280920"/>
+        <c:axId val="431484624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1370,7 +1369,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206280528"/>
+        <c:crossAx val="431484232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1503,11 +1502,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206281704"/>
-        <c:axId val="206282096"/>
+        <c:axId val="431485408"/>
+        <c:axId val="431485800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206281704"/>
+        <c:axId val="431485408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1517,12 +1516,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206282096"/>
+        <c:crossAx val="431485800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206282096"/>
+        <c:axId val="431485800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1533,7 +1532,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206281704"/>
+        <c:crossAx val="431485408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1666,11 +1665,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206282880"/>
-        <c:axId val="206283272"/>
+        <c:axId val="431486584"/>
+        <c:axId val="429662088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206282880"/>
+        <c:axId val="431486584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1680,12 +1679,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206283272"/>
+        <c:crossAx val="429662088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206283272"/>
+        <c:axId val="429662088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1696,7 +1695,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206282880"/>
+        <c:crossAx val="431486584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2480,11 +2479,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206284056"/>
-        <c:axId val="206284448"/>
+        <c:axId val="429662872"/>
+        <c:axId val="429663264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206284056"/>
+        <c:axId val="429662872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2494,12 +2493,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206284448"/>
+        <c:crossAx val="429663264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206284448"/>
+        <c:axId val="429663264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="85"/>
@@ -2512,14 +2511,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206284056"/>
+        <c:crossAx val="429662872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3126,11 +3124,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206285232"/>
-        <c:axId val="206285624"/>
+        <c:axId val="592758992"/>
+        <c:axId val="592759384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206285232"/>
+        <c:axId val="592758992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3140,12 +3138,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206285624"/>
+        <c:crossAx val="592759384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206285624"/>
+        <c:axId val="592759384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="55"/>
@@ -3157,14 +3155,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206285232"/>
+        <c:crossAx val="592758992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3194,7 +3191,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3292,11 +3288,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206286408"/>
-        <c:axId val="206286800"/>
+        <c:axId val="592760168"/>
+        <c:axId val="592760560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206286408"/>
+        <c:axId val="592760168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3306,12 +3302,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206286800"/>
+        <c:crossAx val="592760560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206286800"/>
+        <c:axId val="592760560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -3323,14 +3319,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206286408"/>
+        <c:crossAx val="592760168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3360,7 +3355,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3458,11 +3452,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206287584"/>
-        <c:axId val="206287976"/>
+        <c:axId val="592761344"/>
+        <c:axId val="592761736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206287584"/>
+        <c:axId val="592761344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3472,12 +3466,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206287976"/>
+        <c:crossAx val="592761736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206287976"/>
+        <c:axId val="592761736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-1500"/>
@@ -3489,14 +3483,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206287584"/>
+        <c:crossAx val="592761344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3526,7 +3519,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3624,11 +3616,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="269989696"/>
-        <c:axId val="269990088"/>
+        <c:axId val="592762520"/>
+        <c:axId val="605870296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="269989696"/>
+        <c:axId val="592762520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3638,12 +3630,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269990088"/>
+        <c:crossAx val="605870296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269990088"/>
+        <c:axId val="605870296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3654,14 +3646,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269989696"/>
+        <c:crossAx val="592762520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4363,11 +4354,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="269990872"/>
-        <c:axId val="269991264"/>
+        <c:axId val="605871080"/>
+        <c:axId val="605871472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="269990872"/>
+        <c:axId val="605871080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -4379,12 +4370,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269991264"/>
+        <c:crossAx val="605871472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269991264"/>
+        <c:axId val="605871472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -4397,14 +4388,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269990872"/>
+        <c:crossAx val="605871080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4555,11 +4545,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="266522984"/>
-        <c:axId val="266523376"/>
+        <c:axId val="553103960"/>
+        <c:axId val="553104352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="266522984"/>
+        <c:axId val="553103960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4569,12 +4559,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266523376"/>
+        <c:crossAx val="553104352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="266523376"/>
+        <c:axId val="553104352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -4587,7 +4577,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266522984"/>
+        <c:crossAx val="553103960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5164,11 +5154,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="269992048"/>
-        <c:axId val="269992440"/>
+        <c:axId val="605872256"/>
+        <c:axId val="605872648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="269992048"/>
+        <c:axId val="605872256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5178,12 +5168,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269992440"/>
+        <c:crossAx val="605872648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269992440"/>
+        <c:axId val="605872648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="45"/>
@@ -5195,14 +5185,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269992048"/>
+        <c:crossAx val="605872256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5232,7 +5221,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5327,11 +5315,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="269993224"/>
-        <c:axId val="269993616"/>
+        <c:axId val="605873432"/>
+        <c:axId val="605873824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="269993224"/>
+        <c:axId val="605873432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5341,12 +5329,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269993616"/>
+        <c:crossAx val="605873824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269993616"/>
+        <c:axId val="605873824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5357,14 +5345,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269993224"/>
+        <c:crossAx val="605873432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5394,7 +5381,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5489,11 +5475,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="269994400"/>
-        <c:axId val="269994792"/>
+        <c:axId val="553585672"/>
+        <c:axId val="553586064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="269994400"/>
+        <c:axId val="553585672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5503,12 +5489,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269994792"/>
+        <c:crossAx val="553586064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269994792"/>
+        <c:axId val="553586064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-900"/>
@@ -5521,14 +5507,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269994400"/>
+        <c:crossAx val="553585672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5558,7 +5543,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5656,11 +5640,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="269995576"/>
-        <c:axId val="269995968"/>
+        <c:axId val="553586848"/>
+        <c:axId val="553525872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="269995576"/>
+        <c:axId val="553586848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5670,12 +5654,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269995968"/>
+        <c:crossAx val="553525872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269995968"/>
+        <c:axId val="553525872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="68"/>
@@ -5687,14 +5671,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269995576"/>
+        <c:crossAx val="553586848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6318,11 +6301,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="269996752"/>
-        <c:axId val="269997144"/>
+        <c:axId val="553526656"/>
+        <c:axId val="553527048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="269996752"/>
+        <c:axId val="553526656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70.5"/>
@@ -6334,12 +6317,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269997144"/>
+        <c:crossAx val="553527048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269997144"/>
+        <c:axId val="553527048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -6352,14 +6335,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269996752"/>
+        <c:crossAx val="553526656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7113,11 +7095,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="269997928"/>
-        <c:axId val="269998320"/>
+        <c:axId val="546451632"/>
+        <c:axId val="546452024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="269997928"/>
+        <c:axId val="546451632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7127,12 +7109,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269998320"/>
+        <c:crossAx val="546452024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269998320"/>
+        <c:axId val="546452024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="45"/>
@@ -7144,14 +7126,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269997928"/>
+        <c:crossAx val="546451632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7789,11 +7770,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="269999104"/>
-        <c:axId val="269999496"/>
+        <c:axId val="546452808"/>
+        <c:axId val="546453200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="269999104"/>
+        <c:axId val="546452808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7803,12 +7784,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269999496"/>
+        <c:crossAx val="546453200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269999496"/>
+        <c:axId val="546453200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="85"/>
@@ -7821,7 +7802,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269999104"/>
+        <c:crossAx val="546452808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7834,7 +7815,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8531,11 +8511,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="270000280"/>
-        <c:axId val="270000672"/>
+        <c:axId val="546453984"/>
+        <c:axId val="546454376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="270000280"/>
+        <c:axId val="546453984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8545,12 +8525,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="270000672"/>
+        <c:crossAx val="546454376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="270000672"/>
+        <c:axId val="546454376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="45"/>
@@ -8562,14 +8542,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="270000280"/>
+        <c:crossAx val="546453984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8599,7 +8578,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8697,11 +8675,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="270001456"/>
-        <c:axId val="270001848"/>
+        <c:axId val="546455160"/>
+        <c:axId val="593785416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="270001456"/>
+        <c:axId val="546455160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8711,12 +8689,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="270001848"/>
+        <c:crossAx val="593785416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="270001848"/>
+        <c:axId val="593785416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="37"/>
@@ -8729,14 +8707,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="270001456"/>
+        <c:crossAx val="546455160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8766,7 +8743,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8864,11 +8840,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="270002632"/>
-        <c:axId val="270003024"/>
+        <c:axId val="593786200"/>
+        <c:axId val="593786592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="270002632"/>
+        <c:axId val="593786200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8878,12 +8854,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="270003024"/>
+        <c:crossAx val="593786592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="270003024"/>
+        <c:axId val="593786592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8894,14 +8870,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="270002632"/>
+        <c:crossAx val="593786200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9543,11 +9518,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="266524160"/>
-        <c:axId val="266524552"/>
+        <c:axId val="553105136"/>
+        <c:axId val="441132488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="266524160"/>
+        <c:axId val="553105136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9557,12 +9532,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266524552"/>
+        <c:crossAx val="441132488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="266524552"/>
+        <c:axId val="441132488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -9574,14 +9549,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266524160"/>
+        <c:crossAx val="553105136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9708,11 +9682,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="270003808"/>
-        <c:axId val="270004200"/>
+        <c:axId val="593787376"/>
+        <c:axId val="593787768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="270003808"/>
+        <c:axId val="593787376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9722,12 +9696,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="270004200"/>
+        <c:crossAx val="593787768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="270004200"/>
+        <c:axId val="593787768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9738,7 +9712,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="270003808"/>
+        <c:crossAx val="593787376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10466,11 +10440,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="270004984"/>
-        <c:axId val="279898424"/>
+        <c:axId val="593788552"/>
+        <c:axId val="593788944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="270004984"/>
+        <c:axId val="593788552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="71.5"/>
@@ -10482,12 +10456,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279898424"/>
+        <c:crossAx val="593788944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="279898424"/>
+        <c:axId val="593788944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -10500,14 +10474,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="270004984"/>
+        <c:crossAx val="593788552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10953,11 +10926,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="279899208"/>
-        <c:axId val="279899600"/>
+        <c:axId val="593789728"/>
+        <c:axId val="593790120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="279899208"/>
+        <c:axId val="593789728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10967,12 +10940,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279899600"/>
+        <c:crossAx val="593790120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="279899600"/>
+        <c:axId val="593790120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="22"/>
@@ -10984,14 +10957,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279899208"/>
+        <c:crossAx val="593789728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11427,11 +11399,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="279900384"/>
-        <c:axId val="279900776"/>
+        <c:axId val="593790904"/>
+        <c:axId val="593791296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="279900384"/>
+        <c:axId val="593790904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11441,12 +11413,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279900776"/>
+        <c:crossAx val="593791296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="279900776"/>
+        <c:axId val="593791296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11457,14 +11429,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279900384"/>
+        <c:crossAx val="593790904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12060,11 +12031,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="279901560"/>
-        <c:axId val="279901952"/>
+        <c:axId val="593792080"/>
+        <c:axId val="593792472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="279901560"/>
+        <c:axId val="593792080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12074,12 +12045,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279901952"/>
+        <c:crossAx val="593792472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="279901952"/>
+        <c:axId val="593792472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12090,7 +12061,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279901560"/>
+        <c:crossAx val="593792080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12212,11 +12183,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="279902736"/>
-        <c:axId val="279903128"/>
+        <c:axId val="592160992"/>
+        <c:axId val="592161384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="279902736"/>
+        <c:axId val="592160992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12226,12 +12197,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279903128"/>
+        <c:crossAx val="592161384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="279903128"/>
+        <c:axId val="592161384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12242,7 +12213,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279902736"/>
+        <c:crossAx val="592160992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13394,11 +13365,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="266525336"/>
-        <c:axId val="266525728"/>
+        <c:axId val="441133272"/>
+        <c:axId val="441133664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="266525336"/>
+        <c:axId val="441133272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13408,12 +13379,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266525728"/>
+        <c:crossAx val="441133664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="266525728"/>
+        <c:axId val="441133664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="60"/>
@@ -13425,14 +13396,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266525336"/>
+        <c:crossAx val="441133272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13462,7 +13432,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13548,11 +13517,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="266526512"/>
-        <c:axId val="266526904"/>
+        <c:axId val="441134448"/>
+        <c:axId val="441134840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="266526512"/>
+        <c:axId val="441134448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13562,12 +13531,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266526904"/>
+        <c:crossAx val="441134840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="266526904"/>
+        <c:axId val="441134840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13578,14 +13547,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266526512"/>
+        <c:crossAx val="441134448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13615,7 +13583,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13701,11 +13668,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="266527688"/>
-        <c:axId val="266528080"/>
+        <c:axId val="441135624"/>
+        <c:axId val="441136016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="266527688"/>
+        <c:axId val="441135624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13715,12 +13682,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266528080"/>
+        <c:crossAx val="441136016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="266528080"/>
+        <c:axId val="441136016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13731,14 +13698,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266527688"/>
+        <c:crossAx val="441135624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13853,11 +13819,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="266528864"/>
-        <c:axId val="266529256"/>
+        <c:axId val="543453608"/>
+        <c:axId val="543454000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="266528864"/>
+        <c:axId val="543453608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13867,12 +13833,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266529256"/>
+        <c:crossAx val="543454000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="266529256"/>
+        <c:axId val="543454000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13883,7 +13849,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266528864"/>
+        <c:crossAx val="543453608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14608,11 +14574,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="72396720"/>
-        <c:axId val="72397112"/>
+        <c:axId val="543454784"/>
+        <c:axId val="543455176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72396720"/>
+        <c:axId val="543454784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="69"/>
@@ -14624,12 +14590,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72397112"/>
+        <c:crossAx val="543455176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72397112"/>
+        <c:axId val="543455176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -14642,14 +14608,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72396720"/>
+        <c:crossAx val="543454784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15298,11 +15263,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="72397896"/>
-        <c:axId val="72398288"/>
+        <c:axId val="543455960"/>
+        <c:axId val="543456352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72397896"/>
+        <c:axId val="543455960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15312,12 +15277,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72398288"/>
+        <c:crossAx val="543456352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72398288"/>
+        <c:axId val="543456352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="40"/>
@@ -15329,14 +15294,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72397896"/>
+        <c:crossAx val="543455960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -19698,7 +19662,7 @@
   <dimension ref="A2:X50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="V50" sqref="V50"/>
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
